--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.97750833333333</v>
+        <v>10.100659</v>
       </c>
       <c r="H2">
-        <v>65.932525</v>
+        <v>30.301977</v>
       </c>
       <c r="I2">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="J2">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N2">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q2">
-        <v>40.75886425893056</v>
+        <v>13.84675437417033</v>
       </c>
       <c r="R2">
-        <v>366.829778330375</v>
+        <v>124.620789367533</v>
       </c>
       <c r="S2">
-        <v>0.00896294882857916</v>
+        <v>0.003671265873724006</v>
       </c>
       <c r="T2">
-        <v>0.008962948828579162</v>
+        <v>0.003671265873724005</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.97750833333333</v>
+        <v>10.100659</v>
       </c>
       <c r="H3">
-        <v>65.932525</v>
+        <v>30.301977</v>
       </c>
       <c r="I3">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="J3">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>278.741173</v>
       </c>
       <c r="O3">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P3">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q3">
-        <v>2042.01215081687</v>
+        <v>938.4898459110024</v>
       </c>
       <c r="R3">
-        <v>18378.10935735183</v>
+        <v>8446.408613199021</v>
       </c>
       <c r="S3">
-        <v>0.4490422083117361</v>
+        <v>0.2488269561968024</v>
       </c>
       <c r="T3">
-        <v>0.4490422083117362</v>
+        <v>0.2488269561968024</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.97750833333333</v>
+        <v>10.100659</v>
       </c>
       <c r="H4">
-        <v>65.932525</v>
+        <v>30.301977</v>
       </c>
       <c r="I4">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="J4">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N4">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q4">
-        <v>381.8480353915973</v>
+        <v>300.176272880956</v>
       </c>
       <c r="R4">
-        <v>3436.632318524375</v>
+        <v>2701.586455928604</v>
       </c>
       <c r="S4">
-        <v>0.08396908166444995</v>
+        <v>0.07958738033117956</v>
       </c>
       <c r="T4">
-        <v>0.08396908166444995</v>
+        <v>0.07958738033117954</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.97750833333333</v>
+        <v>10.100659</v>
       </c>
       <c r="H5">
-        <v>65.932525</v>
+        <v>30.301977</v>
       </c>
       <c r="I5">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="J5">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N5">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O5">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P5">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q5">
-        <v>3.563345291133334</v>
+        <v>2.787185945119</v>
       </c>
       <c r="R5">
-        <v>32.07010762020001</v>
+        <v>25.084673506071</v>
       </c>
       <c r="S5">
-        <v>0.0007835861495082931</v>
+        <v>0.0007389818846737275</v>
       </c>
       <c r="T5">
-        <v>0.0007835861495082932</v>
+        <v>0.0007389818846737274</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>38.065128</v>
       </c>
       <c r="I6">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="J6">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N6">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q6">
-        <v>23.53150262561334</v>
+        <v>17.39419436683467</v>
       </c>
       <c r="R6">
-        <v>211.78352363052</v>
+        <v>156.547749301512</v>
       </c>
       <c r="S6">
-        <v>0.005174620483855515</v>
+        <v>0.004611818080560754</v>
       </c>
       <c r="T6">
-        <v>0.005174620483855516</v>
+        <v>0.004611818080560754</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>38.065128</v>
       </c>
       <c r="I7">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="J7">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>278.741173</v>
       </c>
       <c r="O7">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P7">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q7">
         <v>1178.924269901683</v>
@@ -883,10 +883,10 @@
         <v>10610.31842911514</v>
       </c>
       <c r="S7">
-        <v>0.2592476040738452</v>
+        <v>0.3125746527192492</v>
       </c>
       <c r="T7">
-        <v>0.2592476040738452</v>
+        <v>0.3125746527192491</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>38.065128</v>
       </c>
       <c r="I8">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="J8">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N8">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q8">
-        <v>220.4540830755333</v>
+        <v>377.079299141984</v>
       </c>
       <c r="R8">
-        <v>1984.0867476798</v>
+        <v>3393.713692277856</v>
       </c>
       <c r="S8">
-        <v>0.04847825624150965</v>
+        <v>0.09997710114726284</v>
       </c>
       <c r="T8">
-        <v>0.04847825624150965</v>
+        <v>0.09997710114726281</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>38.065128</v>
       </c>
       <c r="I9">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="J9">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N9">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O9">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P9">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q9">
-        <v>2.057242531136001</v>
+        <v>3.501243161816</v>
       </c>
       <c r="R9">
-        <v>18.515182780224</v>
+        <v>31.511188456344</v>
       </c>
       <c r="S9">
-        <v>0.0004523913968115178</v>
+        <v>0.0009283037878943237</v>
       </c>
       <c r="T9">
-        <v>0.0004523913968115178</v>
+        <v>0.0009283037878943236</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.818218</v>
+        <v>4.721016333333334</v>
       </c>
       <c r="H10">
-        <v>11.454654</v>
+        <v>14.163049</v>
       </c>
       <c r="I10">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="J10">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N10">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O10">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P10">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q10">
-        <v>7.081158919956667</v>
+        <v>6.471929560646779</v>
       </c>
       <c r="R10">
-        <v>63.73043027961</v>
+        <v>58.247366045821</v>
       </c>
       <c r="S10">
-        <v>0.001557159803163607</v>
+        <v>0.001715938153526449</v>
       </c>
       <c r="T10">
-        <v>0.001557159803163607</v>
+        <v>0.001715938153526448</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.818218</v>
+        <v>4.721016333333334</v>
       </c>
       <c r="H11">
-        <v>11.454654</v>
+        <v>14.163049</v>
       </c>
       <c r="I11">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="J11">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>278.741173</v>
       </c>
       <c r="O11">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P11">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q11">
-        <v>354.7648546965713</v>
+        <v>438.6472101684975</v>
       </c>
       <c r="R11">
-        <v>3192.883692269142</v>
+        <v>3947.824891516477</v>
       </c>
       <c r="S11">
-        <v>0.07801344067449049</v>
+        <v>0.1163009388178259</v>
       </c>
       <c r="T11">
-        <v>0.07801344067449051</v>
+        <v>0.1163009388178258</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.818218</v>
+        <v>4.721016333333334</v>
       </c>
       <c r="H12">
-        <v>11.454654</v>
+        <v>14.163049</v>
       </c>
       <c r="I12">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="J12">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N12">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O12">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P12">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q12">
-        <v>66.33959682251667</v>
+        <v>140.3014483659053</v>
       </c>
       <c r="R12">
-        <v>597.05637140265</v>
+        <v>1262.713035293148</v>
       </c>
       <c r="S12">
-        <v>0.01458819872534865</v>
+        <v>0.03719889192088465</v>
       </c>
       <c r="T12">
-        <v>0.01458819872534865</v>
+        <v>0.03719889192088464</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.818218</v>
+        <v>4.721016333333334</v>
       </c>
       <c r="H13">
-        <v>11.454654</v>
+        <v>14.163049</v>
       </c>
       <c r="I13">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="J13">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N13">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O13">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P13">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q13">
-        <v>0.6190705936480001</v>
+        <v>1.302721968036334</v>
       </c>
       <c r="R13">
-        <v>5.571635342832001</v>
+        <v>11.724497712327</v>
       </c>
       <c r="S13">
-        <v>0.000136134756280148</v>
+        <v>0.0003453978148932775</v>
       </c>
       <c r="T13">
-        <v>0.0001361347562801481</v>
+        <v>0.0003453978148932774</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.008189666666667</v>
+        <v>2.838244666666667</v>
       </c>
       <c r="H14">
-        <v>6.024569</v>
+        <v>8.514734000000001</v>
       </c>
       <c r="I14">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152295</v>
       </c>
       <c r="J14">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152294</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N14">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O14">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P14">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q14">
-        <v>3.724331657092778</v>
+        <v>3.890882441742889</v>
       </c>
       <c r="R14">
-        <v>33.518984913835</v>
+        <v>35.01794197568601</v>
       </c>
       <c r="S14">
-        <v>0.0008189873459456364</v>
+        <v>0.001031610985581485</v>
       </c>
       <c r="T14">
-        <v>0.0008189873459456366</v>
+        <v>0.001031610985581485</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.008189666666667</v>
+        <v>2.838244666666667</v>
       </c>
       <c r="H15">
-        <v>6.024569</v>
+        <v>8.514734000000001</v>
       </c>
       <c r="I15">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152295</v>
       </c>
       <c r="J15">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152294</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>278.741173</v>
       </c>
       <c r="O15">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P15">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q15">
-        <v>186.5883810977152</v>
+        <v>263.7118825492202</v>
       </c>
       <c r="R15">
-        <v>1679.295429879437</v>
+        <v>2373.406942942982</v>
       </c>
       <c r="S15">
-        <v>0.04103112641122766</v>
+        <v>0.06991937668111306</v>
       </c>
       <c r="T15">
-        <v>0.04103112641122766</v>
+        <v>0.06991937668111305</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.008189666666667</v>
+        <v>2.838244666666667</v>
       </c>
       <c r="H16">
-        <v>6.024569</v>
+        <v>8.514734000000001</v>
       </c>
       <c r="I16">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152295</v>
       </c>
       <c r="J16">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152294</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N16">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O16">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P16">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q16">
-        <v>34.89127462858611</v>
+        <v>84.34832871441867</v>
       </c>
       <c r="R16">
-        <v>314.021471657275</v>
+        <v>759.1349584297681</v>
       </c>
       <c r="S16">
-        <v>0.007672655132715053</v>
+        <v>0.02236373465918827</v>
       </c>
       <c r="T16">
-        <v>0.007672655132715053</v>
+        <v>0.02236373465918827</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.008189666666667</v>
+        <v>2.838244666666667</v>
       </c>
       <c r="H17">
-        <v>6.024569</v>
+        <v>8.514734000000001</v>
       </c>
       <c r="I17">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152295</v>
       </c>
       <c r="J17">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152294</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N17">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O17">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P17">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q17">
-        <v>0.3255998397946667</v>
+        <v>0.7831880715646666</v>
       </c>
       <c r="R17">
-        <v>2.930398558152</v>
+        <v>7.048692644082</v>
       </c>
       <c r="S17">
-        <v>7.160000053322739E-05</v>
+        <v>0.0002076509456401299</v>
       </c>
       <c r="T17">
-        <v>7.160000053322739E-05</v>
+        <v>0.0002076509456401298</v>
       </c>
     </row>
   </sheetData>
